--- a/Sheet/FINAL450.xlsx
+++ b/Sheet/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\anshul\Placement series\love babbar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\anshul\Placement series\love babbar\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F90D7D-0658-4584-8242-CE9E7B2DF7D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E78C380-14B4-4229-87E5-50B3FA0DFCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="478">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1437,9 +1437,6 @@
     <t>compare int min with whole array</t>
   </si>
   <si>
-    <t xml:space="preserve">sort </t>
-  </si>
-  <si>
     <t>dnf in notes</t>
   </si>
   <si>
@@ -1456,6 +1453,18 @@
   </si>
   <si>
     <t>2 problems in one file anuj bhyaa</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>dp</t>
   </si>
 </sst>
 </file>
@@ -1901,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1972,10 +1981,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D8" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="21">
@@ -1989,7 +1995,7 @@
         <v>465</v>
       </c>
       <c r="D9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="21">
@@ -2003,7 +2009,7 @@
         <v>465</v>
       </c>
       <c r="D10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="21">
@@ -2017,7 +2023,7 @@
         <v>465</v>
       </c>
       <c r="D11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="21">
@@ -2031,7 +2037,7 @@
         <v>465</v>
       </c>
       <c r="D12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="21">
@@ -2045,7 +2051,7 @@
         <v>465</v>
       </c>
       <c r="D13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="21">
@@ -2069,6 +2075,9 @@
       <c r="C15" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D15" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="21">
       <c r="A16" s="5" t="s">
@@ -2080,6 +2089,9 @@
       <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D16" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="21">
       <c r="A17" s="5" t="s">
@@ -2091,6 +2103,9 @@
       <c r="C17" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D17" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="21">
       <c r="A18" s="5" t="s">
@@ -2127,6 +2142,9 @@
       <c r="C20" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D20" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="21">
       <c r="A21" s="5" t="s">
@@ -2138,6 +2156,9 @@
       <c r="C21" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D21" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="21">
       <c r="A22" s="5" t="s">
@@ -2150,7 +2171,7 @@
         <v>465</v>
       </c>
       <c r="D22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="21">
@@ -2174,6 +2195,9 @@
       <c r="C24" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D24" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="21">
       <c r="A25" s="5" t="s">
@@ -2196,6 +2220,9 @@
       <c r="C26" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D26" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="21">
       <c r="A27" s="5" t="s">
@@ -2207,6 +2234,9 @@
       <c r="C27" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D27" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="21">
       <c r="A28" s="5" t="s">
@@ -2251,6 +2281,9 @@
       <c r="C31" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D31" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="21">
       <c r="A32" s="5" t="s">
@@ -2282,7 +2315,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">
@@ -2337,7 +2370,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="21">
@@ -2348,7 +2381,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="21">
@@ -2498,7 +2531,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2509,7 +2542,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -3229,7 +3262,7 @@
         <v>121</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="21">
@@ -3295,7 +3328,7 @@
         <v>127</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="21">
